--- a/Documents/Matrice RACI.xlsx
+++ b/Documents/Matrice RACI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Tâche</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Réalisation front-office</t>
+  </si>
+  <si>
+    <t>Réalisation back-office</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,103 +1210,131 @@
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="50" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="59"/>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59"/>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
-        <v>10</v>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>11</v>
+      <c r="D5" s="18"/>
+      <c r="E5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" s="49" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="D6" s="48"/>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="47" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>40</v>
@@ -1303,43 +1343,51 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H7" s="46"/>
       <c r="I7" s="2"/>
       <c r="J7" s="48"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="32" t="s">
         <v>42</v>
       </c>
@@ -1349,16 +1397,18 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="32" t="s">
         <v>42</v>
       </c>
@@ -1368,16 +1418,18 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="32" t="s">
         <v>42</v>
       </c>
@@ -1385,92 +1437,106 @@
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="C13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="2:10" s="49" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>40</v>
@@ -1479,79 +1545,95 @@
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="C19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="24" t="s">
@@ -1563,12 +1645,16 @@
       <c r="H22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="24" t="s">
@@ -1580,12 +1666,16 @@
       <c r="H23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="24" t="s">
@@ -1597,76 +1687,92 @@
       <c r="H24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="I24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="57"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="24" t="s">
@@ -1678,25 +1784,54 @@
       <c r="H29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="I29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="39"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1723,14 +1858,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/Matrice RACI.xlsx
+++ b/Documents/Matrice RACI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfernandez/OneDrive - Reseau-GES/2eme Année/Projet Annuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37232454-316C-DB46-B54A-D3D647B2F52E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="85">
   <si>
     <t>Tâche</t>
   </si>
@@ -165,6 +166,120 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Sous Tâche</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition des besoins </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Matériel</t>
+  </si>
+  <si>
+    <t>Prestataires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cablage </t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>Routeurs</t>
+  </si>
+  <si>
+    <t>Switchs</t>
+  </si>
+  <si>
+    <t>Serveurs</t>
+  </si>
+  <si>
+    <t>Ordinateurs</t>
+  </si>
+  <si>
+    <t>Imprimantes</t>
+  </si>
+  <si>
+    <t>Méthode EBIOS</t>
+  </si>
+  <si>
+    <t>Méthode Mehari</t>
+  </si>
+  <si>
+    <t>Routage</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>VPN Ipsec</t>
+  </si>
+  <si>
+    <t>NAT/PAT</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Main d'œuvre</t>
+  </si>
+  <si>
+    <t>Mise en place matériel</t>
+  </si>
+  <si>
+    <t>Configuration du réseau</t>
+  </si>
+  <si>
+    <t>Appel d'offre</t>
+  </si>
+  <si>
+    <t>Déploiement du réseau</t>
+  </si>
+  <si>
+    <t>Livraison du matériel</t>
+  </si>
+  <si>
+    <t>Configuration du matériel</t>
+  </si>
+  <si>
+    <t>Recette</t>
+  </si>
+  <si>
+    <t>Test de la configuration</t>
+  </si>
+  <si>
+    <t>Table de routage</t>
+  </si>
+  <si>
+    <t>Test de la sécurité</t>
+  </si>
+  <si>
+    <t>Vérifications ACLs</t>
+  </si>
+  <si>
+    <t>Vérification tunnel VPN Ipsec</t>
+  </si>
+  <si>
+    <t>E.Guillermot</t>
+  </si>
+  <si>
+    <t>Test maquette</t>
+  </si>
+  <si>
+    <t>Réseau</t>
+  </si>
+  <si>
+    <t>Professeur</t>
   </si>
 </sst>
 </file>
@@ -206,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -710,11 +825,332 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,6 +1315,241 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,19 +1866,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScale="118" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -1838,26 +2510,1247 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="21"/>
     </row>
-    <row r="35" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="20"/>
     </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="131"/>
+      <c r="C37" s="132"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="131"/>
+      <c r="C38" s="132"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="59"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="61"/>
+      <c r="J41" s="129" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="56"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="133"/>
+      <c r="J43" s="75"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="134"/>
+      <c r="J44" s="127"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="81"/>
+      <c r="J45" s="75"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="102"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="74"/>
+      <c r="J46" s="66"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="102"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="74"/>
+      <c r="J47" s="66"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="102"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="74"/>
+      <c r="J48" s="66"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="102"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="74"/>
+      <c r="J49" s="66"/>
+    </row>
+    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="102"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="74"/>
+      <c r="J50" s="66"/>
+    </row>
+    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="103"/>
+      <c r="C51" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="62"/>
+      <c r="E51" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="82"/>
+      <c r="J51" s="127"/>
+    </row>
+    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="135"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="86"/>
+      <c r="J52" s="73"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="75"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="102"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="66"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="102"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="66"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="102"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="66"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="102"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="66"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="102"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="66"/>
+    </row>
+    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="102"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="127"/>
+    </row>
+    <row r="60" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="102"/>
+      <c r="C60" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="73"/>
+    </row>
+    <row r="61" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="102"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="85"/>
+      <c r="J61" s="130"/>
+    </row>
+    <row r="62" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="140"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="81"/>
+      <c r="J62" s="122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="103"/>
+      <c r="C63" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="138"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="82"/>
+      <c r="J63" s="76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B64" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="30"/>
+      <c r="F64" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="81"/>
+      <c r="J64" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="102"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="133"/>
+      <c r="J65" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="102"/>
+      <c r="C66" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="136"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="74"/>
+      <c r="J66" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="102"/>
+      <c r="C67" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="133"/>
+      <c r="J67" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="102"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="66"/>
+      <c r="F68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="102"/>
+      <c r="C69" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="44"/>
+      <c r="F69" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="87"/>
+      <c r="J69" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="103"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="97"/>
+      <c r="F70" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="86"/>
+      <c r="J70" s="73"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="102"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="102"/>
+      <c r="C77" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" s="134"/>
+      <c r="J77" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="134"/>
+      <c r="J78" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="134"/>
+      <c r="J79" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80" s="134"/>
+      <c r="J80" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" s="82"/>
+      <c r="J81" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" s="86"/>
+      <c r="J82" s="122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="102"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" s="134"/>
+      <c r="J83" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B84" s="102"/>
+      <c r="C84" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="134"/>
+      <c r="J84" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="134"/>
+      <c r="J85" s="76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="83"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" s="124"/>
+      <c r="J87" s="122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="125"/>
+      <c r="J88" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I89" s="125"/>
+      <c r="J89" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="84"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" s="126"/>
+      <c r="J90" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="123"/>
+    </row>
+    <row r="96" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="21"/>
+    </row>
+    <row r="99" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="36">
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="C87:D90"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B53:B61"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B14:J14"/>
